--- a/datatables/datas/__tables__.xlsx
+++ b/datatables/datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85318622-8655-4CC9-9E3F-0DBCA100EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4E968-0F52-4A7A-8A41-E289FE88551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,13 +103,14 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>item.xlsx</t>
+  </si>
+  <si>
     <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -562,16 +563,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/datatables/datas/__tables__.xlsx
+++ b/datatables/datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4E968-0F52-4A7A-8A41-E289FE88551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E267BD3F-09A7-435A-8E22-9CE4C049B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -91,25 +91,107 @@
     <t>可以多个，以逗号','分隔</t>
   </si>
   <si>
-    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>item.xlsx</t>
+  </si>
+  <si>
+    <t>item.TbItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit.TbUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global.TbGlobal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>取值one|map|list，为空自动为map</t>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
-  </si>
-  <si>
-    <t>item.TbItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id1,id2,id3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbMultiIndexList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiIndexList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbMultiUnionIndexList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiUnionIndexList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id1+id2+id3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbNullIndexList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullIndexList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_union_index@list.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_index@list.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_index@list.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map mode下为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +216,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,24 +252,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -465,7 +565,8 @@
     <col min="3" max="3" width="15.5859375" customWidth="1"/>
     <col min="4" max="4" width="32.41015625" customWidth="1"/>
     <col min="5" max="5" width="24.3515625" customWidth="1"/>
-    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="6" max="6" width="28.8203125" customWidth="1"/>
+    <col min="7" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="18.17578125" customWidth="1"/>
     <col min="10" max="10" width="22.234375" customWidth="1"/>
     <col min="11" max="11" width="38.41015625" customWidth="1"/>
@@ -549,34 +650,134 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{48B56325-83F9-4845-B611-85A1EEA7C537}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{54F12978-B03F-4D18-950C-64F8C72FC5BB}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{9884BDD3-129C-44E4-B429-D3803B1DAC42}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/datatables/datas/__tables__.xlsx
+++ b/datatables/datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E267BD3F-09A7-435A-8E22-9CE4C049B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BC470-D0CE-4585-BD74-237C881DC9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/datatables/datas/__tables__.xlsx
+++ b/datatables/datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BC470-D0CE-4585-BD74-237C881DC9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8B195-B4BC-4250-BAEE-0576D70F0E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -104,18 +104,6 @@
   </si>
   <si>
     <t>item.TbItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit.TbUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -553,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -650,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -676,7 +664,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,21 +681,24 @@
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
@@ -715,22 +706,22 @@
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -743,40 +734,20 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{48B56325-83F9-4845-B611-85A1EEA7C537}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{54F12978-B03F-4D18-950C-64F8C72FC5BB}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{9884BDD3-129C-44E4-B429-D3803B1DAC42}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{48B56325-83F9-4845-B611-85A1EEA7C537}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{54F12978-B03F-4D18-950C-64F8C72FC5BB}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{9884BDD3-129C-44E4-B429-D3803B1DAC42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/datatables/datas/__tables__.xlsx
+++ b/datatables/datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8B195-B4BC-4250-BAEE-0576D70F0E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D7733-E383-44FF-BCC2-ABF98BBEF511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>item.xlsx</t>
-  </si>
-  <si>
     <t>item.TbItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,6 +177,10 @@
   </si>
   <si>
     <t>map mode下为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_item.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -638,10 +639,10 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -652,7 +653,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -661,85 +662,85 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
